--- a/pptx-fe2/Report_template.xlsx
+++ b/pptx-fe2/Report_template.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\recipes_food\pptx-fe2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD99394-F6D2-407C-977B-6609E5556BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="prj" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Template báo cáo" sheetId="3" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="prj" sheetId="2" r:id="rId2"/>
+    <sheet name="Template báo cáo" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$V$993</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$V$993</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="195">
   <si>
     <t>TB</t>
   </si>
@@ -537,34 +547,106 @@
   </si>
   <si>
     <t>Mô tả chức năng</t>
+  </si>
+  <si>
+    <t>Lê Anh Vũ</t>
+  </si>
+  <si>
+    <t>Trần Thị Hoài Trang</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc Trường</t>
+  </si>
+  <si>
+    <t>Thái Thị Mỹ Tiên</t>
+  </si>
+  <si>
+    <t>Hiệu ứng sau khi click button navbar</t>
+  </si>
+  <si>
+    <t>Đồng hồ</t>
+  </si>
+  <si>
+    <t>Hiệu ứng tự động viết tại header</t>
+  </si>
+  <si>
+    <t>Hiệu ứng hover form login</t>
+  </si>
+  <si>
+    <t>Hiệu ứng hover field form login</t>
+  </si>
+  <si>
+    <t>Chức năng đăng nhập</t>
+  </si>
+  <si>
+    <t>Chức năng tạo tài khoản</t>
+  </si>
+  <si>
+    <t>Chức năng phân quyền truy xuất trang</t>
+  </si>
+  <si>
+    <t>Chức năng chuyển trang không reload lại trang</t>
+  </si>
+  <si>
+    <t>Chức năng đăng nhập sai 3 lần thì không cho nhập</t>
+  </si>
+  <si>
+    <t>Chức năng thêm mới một công thức món ăn</t>
+  </si>
+  <si>
+    <t>Chức năng hiển thị ảnh khi chọn một tệp là hình ảnh</t>
+  </si>
+  <si>
+    <t>Chức năng update món ăn</t>
+  </si>
+  <si>
+    <t>Hiệu ứng chữ cho footer</t>
+  </si>
+  <si>
+    <t>Hiệu ứng gợn sóng của footer</t>
+  </si>
+  <si>
+    <t>Hiệu ứng logo react xoay bên trong đồng hồ</t>
+  </si>
+  <si>
+    <t>Thanh cuộn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
       <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -572,61 +654,55 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -816,73 +892,76 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:V57"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="3.29"/>
-    <col customWidth="1" min="3" max="3" width="10.43"/>
-    <col customWidth="1" min="5" max="5" width="7.57"/>
-    <col customWidth="1" hidden="1" min="6" max="17" width="6.14"/>
-    <col customWidth="1" min="18" max="20" width="6.14"/>
-    <col customWidth="1" min="21" max="21" width="6.29"/>
-    <col customWidth="1" min="22" max="22" width="5.43"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" customWidth="1"/>
+    <col min="6" max="17" width="6.109375" hidden="1" customWidth="1"/>
+    <col min="18" max="20" width="6.109375" customWidth="1"/>
+    <col min="21" max="21" width="6.33203125" customWidth="1"/>
+    <col min="22" max="22" width="5.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="F1" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G1" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H1" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I1" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J1" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="K1" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="L1" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="M1" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="N1" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="O1" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="P1" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="Q1" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="R1" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="S1" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="T1" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>0</v>
@@ -891,9 +970,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -908,24 +987,24 @@
         <v>5</v>
       </c>
       <c r="F2" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="G2" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H2" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="K2" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="R2" s="1">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>6</v>
@@ -940,36 +1019,36 @@
         <v>9</v>
       </c>
       <c r="F3" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H3" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I3" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L3" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M3" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O3" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>10</v>
@@ -984,48 +1063,48 @@
         <v>12</v>
       </c>
       <c r="F4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R4" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>13</v>
@@ -1040,27 +1119,27 @@
         <v>16</v>
       </c>
       <c r="F5" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H5" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="L5" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M5" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R5" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>17</v>
@@ -1075,39 +1154,39 @@
         <v>20</v>
       </c>
       <c r="F6" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="G6" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H6" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I6" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="K6" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M6" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="N6" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="O6" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="P6" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="R6" s="1">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
@@ -1122,18 +1201,18 @@
         <v>23</v>
       </c>
       <c r="F7" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H7" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="K7" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>24</v>
@@ -1148,33 +1227,33 @@
         <v>27</v>
       </c>
       <c r="F8" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="G8" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H8" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="I8" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="K8" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L8" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="O8" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="P8" s="1">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>28</v>
@@ -1189,42 +1268,42 @@
         <v>30</v>
       </c>
       <c r="F9" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G9" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="H9" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I9" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="K9" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="L9" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="M9" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="O9" s="1">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="P9" s="1">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="Q9" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="R9" s="1">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>31</v>
@@ -1239,27 +1318,27 @@
         <v>34</v>
       </c>
       <c r="F10" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="G10" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H10" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="I10" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="K10" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="P10" s="1">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>35</v>
@@ -1274,36 +1353,36 @@
         <v>37</v>
       </c>
       <c r="F11" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="G11" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H11" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="I11" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="K11" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="M11" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="O11" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="P11" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="R11" s="1">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>38</v>
@@ -1318,48 +1397,48 @@
         <v>41</v>
       </c>
       <c r="F12" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R12" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>42</v>
@@ -1374,21 +1453,21 @@
         <v>44</v>
       </c>
       <c r="F13" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H13" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M13" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>45</v>
@@ -1403,30 +1482,30 @@
         <v>47</v>
       </c>
       <c r="F14" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G14" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H14" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="I14" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K14" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="L14" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>49</v>
@@ -1441,34 +1520,34 @@
         <v>51</v>
       </c>
       <c r="F15" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G15" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H15" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I15" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>48</v>
       </c>
       <c r="O15" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="P15" s="1">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>52</v>
@@ -1483,33 +1562,33 @@
         <v>54</v>
       </c>
       <c r="F16" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G16" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H16" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I16" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K16" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="M16" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="O16" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="R16" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>55</v>
@@ -1524,36 +1603,36 @@
         <v>57</v>
       </c>
       <c r="F17" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G17" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="H17" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I17" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K17" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="M17" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="O17" s="1">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="P17" s="1">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="Q17" s="1">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>58</v>
@@ -1568,27 +1647,27 @@
         <v>60</v>
       </c>
       <c r="F18" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G18" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H18" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="I18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M18" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>61</v>
@@ -1603,48 +1682,48 @@
         <v>64</v>
       </c>
       <c r="F19" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R19" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>65</v>
@@ -1659,21 +1738,21 @@
         <v>67</v>
       </c>
       <c r="F20" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G20" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H20" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="K20" s="1">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>68</v>
@@ -1688,18 +1767,18 @@
         <v>70</v>
       </c>
       <c r="F21" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H21" s="1">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>71</v>
@@ -1714,30 +1793,30 @@
         <v>73</v>
       </c>
       <c r="F22" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G22" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H22" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="I22" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K22" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="O22" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="Q22" s="1">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>74</v>
@@ -1752,21 +1831,21 @@
         <v>76</v>
       </c>
       <c r="F23" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G23" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H23" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>77</v>
@@ -1781,21 +1860,21 @@
         <v>76</v>
       </c>
       <c r="F24" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>79</v>
@@ -1810,39 +1889,39 @@
         <v>82</v>
       </c>
       <c r="F25" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G25" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H25" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I25" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="K25" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="L25" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="M25" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="O25" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="P25" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="R25" s="1">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>83</v>
@@ -1857,36 +1936,36 @@
         <v>85</v>
       </c>
       <c r="F26" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G26" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H26" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="I26" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="K26" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="L26" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="M26" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="O26" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="P26" s="1">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>86</v>
@@ -1901,30 +1980,30 @@
         <v>88</v>
       </c>
       <c r="F27" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G27" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H27" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="K27" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="M27" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="O27" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="R27" s="1">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>89</v>
@@ -1939,18 +2018,18 @@
         <v>88</v>
       </c>
       <c r="F28" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H28" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M28" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>91</v>
@@ -1965,15 +2044,15 @@
         <v>93</v>
       </c>
       <c r="F29" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H29" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>94</v>
@@ -1988,33 +2067,33 @@
         <v>96</v>
       </c>
       <c r="F30" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G30" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H30" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="K30" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="M30" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="O30" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="P30" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="R30" s="1">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>97</v>
@@ -2029,15 +2108,15 @@
         <v>99</v>
       </c>
       <c r="F31" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H31" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>100</v>
@@ -2052,39 +2131,39 @@
         <v>102</v>
       </c>
       <c r="F32" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G32" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H32" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="I32" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="K32" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="L32" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="M32" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="O32" s="1">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="P32" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="R32" s="1">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>103</v>
@@ -2099,21 +2178,21 @@
         <v>105</v>
       </c>
       <c r="F33" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H33" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L33" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M33" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>106</v>
@@ -2128,21 +2207,21 @@
         <v>105</v>
       </c>
       <c r="F34" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H34" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="K34" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="M34" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>108</v>
@@ -2157,30 +2236,30 @@
         <v>110</v>
       </c>
       <c r="F35" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H35" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="K35" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="M35" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="O35" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="P35" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="R35" s="1">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>111</v>
@@ -2195,45 +2274,45 @@
         <v>113</v>
       </c>
       <c r="F36" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G36" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="H36" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="I36" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="J36" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="K36" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="M36" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="O36" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="P36" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="Q36" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="R36" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="S36" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>114</v>
@@ -2248,24 +2327,24 @@
         <v>116</v>
       </c>
       <c r="F37" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G37" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H37" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I37" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="M37" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>117</v>
@@ -2280,18 +2359,18 @@
         <v>34</v>
       </c>
       <c r="F38" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="H38" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K38" s="1">
-        <v>11.0</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>120</v>
@@ -2306,33 +2385,33 @@
         <v>122</v>
       </c>
       <c r="F39" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H39" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="K39" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="L39" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="M39" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="O39" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="Q39" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R39" s="1">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>123</v>
@@ -2347,21 +2426,21 @@
         <v>113</v>
       </c>
       <c r="F40" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H40" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K40" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>125</v>
@@ -2376,30 +2455,30 @@
         <v>20</v>
       </c>
       <c r="F41" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G41" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H41" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="I41" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K41" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P41" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R41" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>128</v>
@@ -2414,22 +2493,22 @@
         <v>44</v>
       </c>
       <c r="F42" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H42" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="K42" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="L42" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="Q42" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>130</v>
       </c>
@@ -2440,19 +2519,19 @@
         <v>132</v>
       </c>
       <c r="F43" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G43" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H43" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K43" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D44" s="1" t="s">
         <v>133</v>
       </c>
@@ -2460,28 +2539,28 @@
         <v>134</v>
       </c>
       <c r="F44" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G44" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H44" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="K44" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="L44" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M44" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="O44" s="1">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>135</v>
       </c>
@@ -2492,13 +2571,13 @@
         <v>137</v>
       </c>
       <c r="H45" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="K45" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>138</v>
       </c>
@@ -2509,13 +2588,13 @@
         <v>140</v>
       </c>
       <c r="H46" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J46" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>141</v>
       </c>
@@ -2526,16 +2605,16 @@
         <v>20</v>
       </c>
       <c r="H47" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L47" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="N47" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>143</v>
       </c>
@@ -2546,16 +2625,16 @@
         <v>27</v>
       </c>
       <c r="G48" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H48" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="K48" s="1">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>145</v>
       </c>
@@ -2566,16 +2645,16 @@
         <v>147</v>
       </c>
       <c r="G49" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H49" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="K49" s="1">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>148</v>
       </c>
@@ -2586,22 +2665,22 @@
         <v>150</v>
       </c>
       <c r="G50" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H50" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="K50" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L50" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="N50" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>151</v>
       </c>
@@ -2612,13 +2691,13 @@
         <v>153</v>
       </c>
       <c r="H51" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="P51" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>154</v>
       </c>
@@ -2629,19 +2708,19 @@
         <v>156</v>
       </c>
       <c r="H52" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M52" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N52" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="R52" s="1">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>157</v>
       </c>
@@ -2652,16 +2731,16 @@
         <v>102</v>
       </c>
       <c r="G53" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H53" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M53" s="1">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>158</v>
       </c>
@@ -2672,19 +2751,19 @@
         <v>133</v>
       </c>
       <c r="G54" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H54" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="K54" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M54" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D55" s="1" t="s">
         <v>160</v>
       </c>
@@ -2692,13 +2771,13 @@
         <v>82</v>
       </c>
       <c r="H55" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L55" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D56" s="1" t="s">
         <v>161</v>
       </c>
@@ -2709,13 +2788,13 @@
         <v>163</v>
       </c>
       <c r="N56" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O56" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D57" s="1" t="s">
         <v>43</v>
       </c>
@@ -2723,46 +2802,42 @@
         <v>164</v>
       </c>
       <c r="M57" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P57" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R57" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$V$993">
-    <sortState ref="A1:V993">
-      <sortCondition ref="A1:A993"/>
-      <sortCondition ref="F1:F993"/>
-    </sortState>
-  </autoFilter>
-  <drawing r:id="rId1"/>
+  <autoFilter ref="A1:V993" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="5" max="5" width="6.29"/>
-    <col customWidth="1" min="6" max="6" width="3.29"/>
+    <col min="5" max="5" width="6.33203125" customWidth="1"/>
+    <col min="6" max="6" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E1" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -2776,7 +2851,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -2790,7 +2865,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -2804,7 +2879,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
@@ -2818,7 +2893,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -2832,7 +2907,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>21</v>
       </c>
@@ -2846,7 +2921,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
@@ -2860,7 +2935,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>28</v>
       </c>
@@ -2874,13 +2949,13 @@
         <v>30</v>
       </c>
       <c r="E9" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="1">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>31</v>
       </c>
@@ -2894,7 +2969,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>35</v>
       </c>
@@ -2908,7 +2983,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>38</v>
       </c>
@@ -2922,7 +2997,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>42</v>
       </c>
@@ -2936,7 +3011,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>45</v>
       </c>
@@ -2950,7 +3025,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>49</v>
       </c>
@@ -2964,13 +3039,13 @@
         <v>51</v>
       </c>
       <c r="E15" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="1">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>52</v>
       </c>
@@ -2984,13 +3059,13 @@
         <v>54</v>
       </c>
       <c r="E16" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="1">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>55</v>
       </c>
@@ -3004,13 +3079,13 @@
         <v>57</v>
       </c>
       <c r="E17" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="1">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>58</v>
       </c>
@@ -3024,7 +3099,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>61</v>
       </c>
@@ -3038,7 +3113,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>65</v>
       </c>
@@ -3052,7 +3127,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>68</v>
       </c>
@@ -3066,7 +3141,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>71</v>
       </c>
@@ -3080,7 +3155,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>74</v>
       </c>
@@ -3094,7 +3169,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>77</v>
       </c>
@@ -3108,7 +3183,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>79</v>
       </c>
@@ -3122,7 +3197,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>83</v>
       </c>
@@ -3136,7 +3211,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>86</v>
       </c>
@@ -3150,7 +3225,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>89</v>
       </c>
@@ -3164,7 +3239,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>91</v>
       </c>
@@ -3178,7 +3253,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>94</v>
       </c>
@@ -3192,7 +3267,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>97</v>
       </c>
@@ -3206,7 +3281,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>100</v>
       </c>
@@ -3220,7 +3295,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>103</v>
       </c>
@@ -3234,7 +3309,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>106</v>
       </c>
@@ -3248,7 +3323,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>108</v>
       </c>
@@ -3262,7 +3337,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>111</v>
       </c>
@@ -3276,7 +3351,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>114</v>
       </c>
@@ -3290,7 +3365,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>117</v>
       </c>
@@ -3304,7 +3379,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>120</v>
       </c>
@@ -3318,7 +3393,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>123</v>
       </c>
@@ -3332,7 +3407,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>125</v>
       </c>
@@ -3346,7 +3421,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>128</v>
       </c>
@@ -3360,7 +3435,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>130</v>
       </c>
@@ -3371,7 +3446,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C44" s="5" t="s">
         <v>133</v>
       </c>
@@ -3379,7 +3454,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>135</v>
       </c>
@@ -3390,7 +3465,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>138</v>
       </c>
@@ -3401,7 +3476,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>141</v>
       </c>
@@ -3412,7 +3487,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>143</v>
       </c>
@@ -3423,7 +3498,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>145</v>
       </c>
@@ -3434,7 +3509,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>148</v>
       </c>
@@ -3445,7 +3520,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>151</v>
       </c>
@@ -3456,7 +3531,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>154</v>
       </c>
@@ -3467,7 +3542,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>157</v>
       </c>
@@ -3478,7 +3553,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>158</v>
       </c>
@@ -3489,7 +3564,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C55" s="5" t="s">
         <v>160</v>
       </c>
@@ -3497,7 +3572,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C56" s="5" t="s">
         <v>161</v>
       </c>
@@ -3505,7 +3580,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C57" s="5" t="s">
         <v>43</v>
       </c>
@@ -3514,146 +3589,339 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="6.29"/>
-    <col customWidth="1" min="2" max="2" width="40.29"/>
-    <col customWidth="1" min="3" max="3" width="22.29"/>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="47.21875" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="7" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
     </row>
-    <row r="8">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="8" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>179</v>
+      </c>
+      <c r="C11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>193</v>
+      </c>
+      <c r="C12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>178</v>
+      </c>
+      <c r="C13" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>182</v>
+      </c>
+      <c r="C15" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>191</v>
+      </c>
+      <c r="C16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>192</v>
+      </c>
+      <c r="C17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>194</v>
+      </c>
+      <c r="C18" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="8" t="s">
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+    </row>
+    <row r="27" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B27" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C27" s="7" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1">
-        <v>5.0</v>
+    <row r="28" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>183</v>
+      </c>
+      <c r="C28" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>2</v>
+      </c>
+      <c r="B29" t="s">
+        <v>184</v>
+      </c>
+      <c r="C29" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>185</v>
+      </c>
+      <c r="C30" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>186</v>
+      </c>
+      <c r="C31" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s">
+        <v>187</v>
+      </c>
+      <c r="C32" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>6</v>
+      </c>
+      <c r="B33" t="s">
+        <v>188</v>
+      </c>
+      <c r="C33" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
+        <v>189</v>
+      </c>
+      <c r="C34" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>8</v>
+      </c>
+      <c r="B35" t="s">
+        <v>190</v>
+      </c>
+      <c r="C35" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A26:C26"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/pptx-fe2/Report_template.xlsx
+++ b/pptx-fe2/Report_template.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\recipes_food\pptx-fe2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD99394-F6D2-407C-977B-6609E5556BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="211">
   <si>
     <t>TB</t>
   </si>
@@ -610,12 +604,60 @@
   </si>
   <si>
     <t>Thanh cuộn</t>
+  </si>
+  <si>
+    <t>Hiệu ứng phóng to ảnh k tràn ra ngoài</t>
+  </si>
+  <si>
+    <t>Hiệu ứng Đoạn dữ liệu text chạy tự động từ phải sang trái</t>
+  </si>
+  <si>
+    <t>Hiệu ứng hover vào nút (Heart, edit, delete) Detail</t>
+  </si>
+  <si>
+    <t>Hiệu ứng Hiển thị màu nền của phần nguyên liệu khi hover</t>
+  </si>
+  <si>
+    <t>Hiệu ứng Hiển thị màu nền của phần các bước công thức khi hover</t>
+  </si>
+  <si>
+    <t>Hiệu ứng border chạy tự động theo kim đồng hồ của comment</t>
+  </si>
+  <si>
+    <t>Hiệu ứng khi click vào button đăng bình luận</t>
+  </si>
+  <si>
+    <t>Hiệu ứng khi rê chuột sẽ đổi màu tại vị trí con chuột</t>
+  </si>
+  <si>
+    <t>Chức năng xem chi tiết công thức</t>
+  </si>
+  <si>
+    <t>Chức năng hiển thị thông tin tài khoản tạo công thức</t>
+  </si>
+  <si>
+    <t>Chức năng hiển thị bình luận</t>
+  </si>
+  <si>
+    <t>Chức năng thêm bình luận</t>
+  </si>
+  <si>
+    <t>Chức năng sắp xếp bình luận mới nhất</t>
+  </si>
+  <si>
+    <t>Chức năng xóa sản phẩm trong trang chi tiết</t>
+  </si>
+  <si>
+    <t>Chức năng đếm số lượng bình luận của 1 công thức</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị xóa, sửa khi người dùng đăng nhập vào chính tài khoản của mình, chỉ có thể bình luận khi đã đang nhập </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -669,7 +711,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -680,6 +722,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -898,7 +941,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -906,18 +949,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" customWidth="1"/>
-    <col min="5" max="5" width="7.5546875" customWidth="1"/>
-    <col min="6" max="17" width="6.109375" hidden="1" customWidth="1"/>
-    <col min="18" max="20" width="6.109375" customWidth="1"/>
-    <col min="21" max="21" width="6.33203125" customWidth="1"/>
-    <col min="22" max="22" width="5.44140625" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" customWidth="1"/>
+    <col min="6" max="17" width="6.140625" hidden="1" customWidth="1"/>
+    <col min="18" max="20" width="6.140625" customWidth="1"/>
+    <col min="21" max="21" width="6.28515625" customWidth="1"/>
+    <col min="22" max="22" width="5.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F1" s="1">
         <v>1</v>
       </c>
@@ -970,7 +1013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1002,7 +1045,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1046,7 +1089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1102,7 +1145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1137,7 +1180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>6</v>
       </c>
@@ -1184,7 +1227,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>7</v>
       </c>
@@ -1210,7 +1253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>8</v>
       </c>
@@ -1251,7 +1294,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>9</v>
       </c>
@@ -1301,7 +1344,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>11</v>
       </c>
@@ -1336,7 +1379,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>12</v>
       </c>
@@ -1380,7 +1423,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>13</v>
       </c>
@@ -1436,7 +1479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>14</v>
       </c>
@@ -1465,7 +1508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>15</v>
       </c>
@@ -1503,7 +1546,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>16</v>
       </c>
@@ -1545,7 +1588,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>17</v>
       </c>
@@ -1586,7 +1629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>18</v>
       </c>
@@ -1630,7 +1673,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>19</v>
       </c>
@@ -1665,7 +1708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>20</v>
       </c>
@@ -1721,7 +1764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>21</v>
       </c>
@@ -1750,7 +1793,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>23</v>
       </c>
@@ -1776,7 +1819,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>24</v>
       </c>
@@ -1814,7 +1857,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>25</v>
       </c>
@@ -1843,7 +1886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>26</v>
       </c>
@@ -1872,7 +1915,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>27</v>
       </c>
@@ -1919,7 +1962,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>28</v>
       </c>
@@ -1963,7 +2006,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>29</v>
       </c>
@@ -2001,7 +2044,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>30</v>
       </c>
@@ -2027,7 +2070,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>31</v>
       </c>
@@ -2050,7 +2093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>33</v>
       </c>
@@ -2091,7 +2134,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>34</v>
       </c>
@@ -2114,7 +2157,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>35</v>
       </c>
@@ -2161,7 +2204,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>36</v>
       </c>
@@ -2190,7 +2233,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>37</v>
       </c>
@@ -2219,7 +2262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>38</v>
       </c>
@@ -2257,7 +2300,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>39</v>
       </c>
@@ -2310,7 +2353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>40</v>
       </c>
@@ -2342,7 +2385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>41</v>
       </c>
@@ -2368,7 +2411,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>42</v>
       </c>
@@ -2409,7 +2452,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>43</v>
       </c>
@@ -2438,7 +2481,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>44</v>
       </c>
@@ -2476,7 +2519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>45</v>
       </c>
@@ -2508,7 +2551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
         <v>130</v>
       </c>
@@ -2531,7 +2574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D44" s="1" t="s">
         <v>133</v>
       </c>
@@ -2560,7 +2603,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
         <v>135</v>
       </c>
@@ -2577,7 +2620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
         <v>138</v>
       </c>
@@ -2594,7 +2637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
         <v>141</v>
       </c>
@@ -2614,7 +2657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
         <v>143</v>
       </c>
@@ -2634,7 +2677,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
         <v>145</v>
       </c>
@@ -2654,7 +2697,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
         <v>148</v>
       </c>
@@ -2680,7 +2723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
         <v>151</v>
       </c>
@@ -2697,7 +2740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
         <v>154</v>
       </c>
@@ -2720,7 +2763,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
         <v>157</v>
       </c>
@@ -2740,7 +2783,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
         <v>158</v>
       </c>
@@ -2763,7 +2806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D55" s="1" t="s">
         <v>160</v>
       </c>
@@ -2777,7 +2820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D56" s="1" t="s">
         <v>161</v>
       </c>
@@ -2794,7 +2837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:18" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D57" s="1" t="s">
         <v>43</v>
       </c>
@@ -2812,13 +2855,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V993" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:V993"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2826,18 +2869,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="6.33203125" customWidth="1"/>
-    <col min="6" max="6" width="3.33203125" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" customWidth="1"/>
+    <col min="6" max="6" width="3.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E1" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -2851,7 +2894,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -2865,7 +2908,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -2879,7 +2922,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
@@ -2893,7 +2936,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -2907,7 +2950,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>21</v>
       </c>
@@ -2921,7 +2964,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
@@ -2935,7 +2978,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>28</v>
       </c>
@@ -2955,7 +2998,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>31</v>
       </c>
@@ -2969,7 +3012,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>35</v>
       </c>
@@ -2983,7 +3026,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>38</v>
       </c>
@@ -2997,7 +3040,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>42</v>
       </c>
@@ -3011,7 +3054,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>45</v>
       </c>
@@ -3025,7 +3068,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>49</v>
       </c>
@@ -3045,7 +3088,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>52</v>
       </c>
@@ -3065,7 +3108,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>55</v>
       </c>
@@ -3085,7 +3128,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>58</v>
       </c>
@@ -3099,7 +3142,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>61</v>
       </c>
@@ -3113,7 +3156,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>65</v>
       </c>
@@ -3127,7 +3170,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>68</v>
       </c>
@@ -3141,7 +3184,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>71</v>
       </c>
@@ -3155,7 +3198,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>74</v>
       </c>
@@ -3169,7 +3212,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>77</v>
       </c>
@@ -3183,7 +3226,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>79</v>
       </c>
@@ -3197,7 +3240,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>83</v>
       </c>
@@ -3211,7 +3254,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>86</v>
       </c>
@@ -3225,7 +3268,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>89</v>
       </c>
@@ -3239,7 +3282,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>91</v>
       </c>
@@ -3253,7 +3296,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>94</v>
       </c>
@@ -3267,7 +3310,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>97</v>
       </c>
@@ -3281,7 +3324,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>100</v>
       </c>
@@ -3295,7 +3338,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>103</v>
       </c>
@@ -3309,7 +3352,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>106</v>
       </c>
@@ -3323,7 +3366,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>108</v>
       </c>
@@ -3337,7 +3380,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>111</v>
       </c>
@@ -3351,7 +3394,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>114</v>
       </c>
@@ -3365,7 +3408,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>117</v>
       </c>
@@ -3379,7 +3422,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>120</v>
       </c>
@@ -3393,7 +3436,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>123</v>
       </c>
@@ -3407,7 +3450,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>125</v>
       </c>
@@ -3421,7 +3464,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>128</v>
       </c>
@@ -3435,7 +3478,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>130</v>
       </c>
@@ -3446,7 +3489,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C44" s="5" t="s">
         <v>133</v>
       </c>
@@ -3454,7 +3497,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
         <v>135</v>
       </c>
@@ -3465,7 +3508,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>138</v>
       </c>
@@ -3476,7 +3519,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>141</v>
       </c>
@@ -3487,7 +3530,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>143</v>
       </c>
@@ -3498,7 +3541,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>145</v>
       </c>
@@ -3509,7 +3552,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>148</v>
       </c>
@@ -3520,7 +3563,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
         <v>151</v>
       </c>
@@ -3531,7 +3574,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
         <v>154</v>
       </c>
@@ -3542,7 +3585,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
         <v>157</v>
       </c>
@@ -3553,7 +3596,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
         <v>158</v>
       </c>
@@ -3564,7 +3607,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C55" s="5" t="s">
         <v>160</v>
       </c>
@@ -3572,7 +3615,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C56" s="5" t="s">
         <v>161</v>
       </c>
@@ -3580,7 +3623,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C57" s="5" t="s">
         <v>43</v>
       </c>
@@ -3594,36 +3637,36 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" customWidth="1"/>
-    <col min="2" max="2" width="47.21875" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="91.7109375" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+    </row>
+    <row r="2" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3631,7 +3674,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -3639,7 +3682,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3647,7 +3690,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3655,17 +3698,17 @@
         <v>177</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+    </row>
+    <row r="9" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>169</v>
       </c>
@@ -3676,7 +3719,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -3687,7 +3730,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -3698,7 +3741,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>3</v>
       </c>
@@ -3709,7 +3752,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>4</v>
       </c>
@@ -3720,7 +3763,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>5</v>
       </c>
@@ -3731,7 +3774,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>6</v>
       </c>
@@ -3742,7 +3785,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>7</v>
       </c>
@@ -3753,7 +3796,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>8</v>
       </c>
@@ -3764,7 +3807,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>9</v>
       </c>
@@ -3775,152 +3818,302 @@
         <v>174</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>195</v>
+      </c>
+      <c r="C19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>197</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>196</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>198</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B23" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B24" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+      <c r="B25" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="5">
+        <v>17</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="5"/>
+    </row>
+    <row r="28" spans="1:3" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="5"/>
+    </row>
+    <row r="29" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-    </row>
-    <row r="27" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+    </row>
+    <row r="30" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B30" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C30" s="7" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
+    <row r="31" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="5">
         <v>1</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B31" t="s">
         <v>183</v>
-      </c>
-      <c r="C28" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
-        <v>2</v>
-      </c>
-      <c r="B29" t="s">
-        <v>184</v>
-      </c>
-      <c r="C29" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
-        <v>3</v>
-      </c>
-      <c r="B30" t="s">
-        <v>185</v>
-      </c>
-      <c r="C30" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
-        <v>4</v>
-      </c>
-      <c r="B31" t="s">
-        <v>186</v>
       </c>
       <c r="C31" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C32" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C33" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B34" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C34" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C35" t="s">
         <v>174</v>
       </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="5">
+        <v>6</v>
+      </c>
+      <c r="B36" t="s">
+        <v>188</v>
+      </c>
+      <c r="C36" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="5">
+        <v>7</v>
+      </c>
+      <c r="B37" t="s">
+        <v>189</v>
+      </c>
+      <c r="C37" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="5">
+        <v>8</v>
+      </c>
+      <c r="B38" t="s">
+        <v>190</v>
+      </c>
+      <c r="C38" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="5">
+        <v>9</v>
+      </c>
+      <c r="B39" t="s">
+        <v>203</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="5">
+        <v>10</v>
+      </c>
+      <c r="B40" t="s">
+        <v>204</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="5">
+        <v>11</v>
+      </c>
+      <c r="B41" t="s">
+        <v>205</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="5">
+        <v>12</v>
+      </c>
+      <c r="B42" t="s">
+        <v>206</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="5">
+        <v>13</v>
+      </c>
+      <c r="B43" t="s">
+        <v>207</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="5">
+        <v>14</v>
+      </c>
+      <c r="B44" t="s">
+        <v>208</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="5">
+        <v>15</v>
+      </c>
+      <c r="B45" t="s">
+        <v>209</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="5">
+        <v>16</v>
+      </c>
+      <c r="B46" t="s">
+        <v>210</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A29:C29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/pptx-fe2/Report_template.xlsx
+++ b/pptx-fe2/Report_template.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\recipes_food\pptx-fe2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E51C81C0-EAF6-4801-BE67-32587862FC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="4212" yWindow="1872" windowWidth="14016" windowHeight="10956" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="231">
   <si>
     <t>TB</t>
   </si>
@@ -652,13 +658,73 @@
   </si>
   <si>
     <t xml:space="preserve">Hiển thị xóa, sửa khi người dùng đăng nhập vào chính tài khoản của mình, chỉ có thể bình luận khi đã đang nhập </t>
+  </si>
+  <si>
+    <t>Hiệu ứng chữ wellcom chạy trên trang Home</t>
+  </si>
+  <si>
+    <t>Hiệu ứng hover vào hình ảnh</t>
+  </si>
+  <si>
+    <t>Hình ứng chữ lắc lưu khi hover vào</t>
+  </si>
+  <si>
+    <t>Hiệu ứng bottom chi tiết sản phẩm</t>
+  </si>
+  <si>
+    <t>Hiệu ứng Bottom sửa xóa</t>
+  </si>
+  <si>
+    <t>Chức năng xóa sản phẩm ở trang home</t>
+  </si>
+  <si>
+    <t>Chức năng tìm kiếm theo loại</t>
+  </si>
+  <si>
+    <t>Chức năng tìm kiếm theo tên</t>
+  </si>
+  <si>
+    <t>Hiển thị xóa sửa nếu món ăn của người dùng đăng</t>
+  </si>
+  <si>
+    <t>Hiệu ứng carousel chạy hình nền</t>
+  </si>
+  <si>
+    <t>Hiệu ứng chạy chữ trong carousel</t>
+  </si>
+  <si>
+    <t>Hiệu ứng hover vào mỗi sản phẩm, đổi màu background</t>
+  </si>
+  <si>
+    <t>Hiệu ứng hover vào hình ảnh của sản phẩm, hiện animation</t>
+  </si>
+  <si>
+    <t>Hiệu ứng hover vào hình ảnh của sản phẩm, hover cạnh dưới hiện icon link đến trang chi tiết sản phẩm</t>
+  </si>
+  <si>
+    <t>Hiệu ứng hover vào button "Xem chi tiết"</t>
+  </si>
+  <si>
+    <t>Hiệu ứng hover vào button phân trang</t>
+  </si>
+  <si>
+    <t>Chức năng hiển thị các sản phẩm theo ID</t>
+  </si>
+  <si>
+    <t>Tìm kiếm công thức món ăn theo tên</t>
+  </si>
+  <si>
+    <t>Xóa công thức theo ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phân trang </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -690,6 +756,19 @@
       <sz val="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -711,7 +790,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -723,10 +802,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -941,7 +1026,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -949,18 +1034,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" customWidth="1"/>
-    <col min="6" max="17" width="6.140625" hidden="1" customWidth="1"/>
-    <col min="18" max="20" width="6.140625" customWidth="1"/>
-    <col min="21" max="21" width="6.28515625" customWidth="1"/>
-    <col min="22" max="22" width="5.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" customWidth="1"/>
+    <col min="6" max="17" width="6.109375" hidden="1" customWidth="1"/>
+    <col min="18" max="20" width="6.109375" customWidth="1"/>
+    <col min="21" max="21" width="6.33203125" customWidth="1"/>
+    <col min="22" max="22" width="5.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F1" s="1">
         <v>1</v>
       </c>
@@ -1013,7 +1098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1045,7 +1130,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1089,7 +1174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1145,7 +1230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1180,7 +1265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>6</v>
       </c>
@@ -1227,7 +1312,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>7</v>
       </c>
@@ -1253,7 +1338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>8</v>
       </c>
@@ -1294,7 +1379,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>9</v>
       </c>
@@ -1344,7 +1429,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>11</v>
       </c>
@@ -1379,7 +1464,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>12</v>
       </c>
@@ -1423,7 +1508,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>13</v>
       </c>
@@ -1479,7 +1564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>14</v>
       </c>
@@ -1508,7 +1593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>15</v>
       </c>
@@ -1546,7 +1631,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>16</v>
       </c>
@@ -1588,7 +1673,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>17</v>
       </c>
@@ -1629,7 +1714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>18</v>
       </c>
@@ -1673,7 +1758,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>19</v>
       </c>
@@ -1708,7 +1793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>20</v>
       </c>
@@ -1764,7 +1849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>21</v>
       </c>
@@ -1793,7 +1878,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>23</v>
       </c>
@@ -1819,7 +1904,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>24</v>
       </c>
@@ -1857,7 +1942,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>25</v>
       </c>
@@ -1886,7 +1971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>26</v>
       </c>
@@ -1915,7 +2000,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>27</v>
       </c>
@@ -1962,7 +2047,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>28</v>
       </c>
@@ -2006,7 +2091,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>29</v>
       </c>
@@ -2044,7 +2129,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>30</v>
       </c>
@@ -2070,7 +2155,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>31</v>
       </c>
@@ -2093,7 +2178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>33</v>
       </c>
@@ -2134,7 +2219,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>34</v>
       </c>
@@ -2157,7 +2242,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>35</v>
       </c>
@@ -2204,7 +2289,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>36</v>
       </c>
@@ -2233,7 +2318,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>37</v>
       </c>
@@ -2262,7 +2347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>38</v>
       </c>
@@ -2300,7 +2385,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>39</v>
       </c>
@@ -2353,7 +2438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>40</v>
       </c>
@@ -2385,7 +2470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>41</v>
       </c>
@@ -2411,7 +2496,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>42</v>
       </c>
@@ -2452,7 +2537,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43</v>
       </c>
@@ -2481,7 +2566,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>44</v>
       </c>
@@ -2519,7 +2604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>45</v>
       </c>
@@ -2551,7 +2636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>130</v>
       </c>
@@ -2574,7 +2659,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D44" s="1" t="s">
         <v>133</v>
       </c>
@@ -2603,7 +2688,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>135</v>
       </c>
@@ -2620,7 +2705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>138</v>
       </c>
@@ -2637,7 +2722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>141</v>
       </c>
@@ -2657,7 +2742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:19" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>143</v>
       </c>
@@ -2677,7 +2762,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="2:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>145</v>
       </c>
@@ -2697,7 +2782,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="2:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>148</v>
       </c>
@@ -2723,7 +2808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>151</v>
       </c>
@@ -2740,7 +2825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>154</v>
       </c>
@@ -2763,7 +2848,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="2:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>157</v>
       </c>
@@ -2783,7 +2868,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="2:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>158</v>
       </c>
@@ -2806,7 +2891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D55" s="1" t="s">
         <v>160</v>
       </c>
@@ -2820,7 +2905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D56" s="1" t="s">
         <v>161</v>
       </c>
@@ -2837,7 +2922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:18" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:18" ht="13.2" x14ac:dyDescent="0.25">
       <c r="D57" s="1" t="s">
         <v>43</v>
       </c>
@@ -2855,13 +2940,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V993"/>
+  <autoFilter ref="A1:V993" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -2869,18 +2954,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="6.28515625" customWidth="1"/>
-    <col min="6" max="6" width="3.28515625" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" customWidth="1"/>
+    <col min="6" max="6" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E1" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -2894,7 +2979,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -2908,7 +2993,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -2922,7 +3007,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
@@ -2936,7 +3021,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -2950,7 +3035,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>21</v>
       </c>
@@ -2964,7 +3049,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
@@ -2978,7 +3063,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>28</v>
       </c>
@@ -2998,7 +3083,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3012,7 +3097,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>35</v>
       </c>
@@ -3026,7 +3111,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>38</v>
       </c>
@@ -3040,7 +3125,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>42</v>
       </c>
@@ -3054,7 +3139,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>45</v>
       </c>
@@ -3068,7 +3153,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>49</v>
       </c>
@@ -3088,7 +3173,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>52</v>
       </c>
@@ -3108,7 +3193,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>55</v>
       </c>
@@ -3128,7 +3213,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>58</v>
       </c>
@@ -3142,7 +3227,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>61</v>
       </c>
@@ -3156,7 +3241,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>65</v>
       </c>
@@ -3170,7 +3255,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>68</v>
       </c>
@@ -3184,7 +3269,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>71</v>
       </c>
@@ -3198,7 +3283,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>74</v>
       </c>
@@ -3212,7 +3297,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>77</v>
       </c>
@@ -3226,7 +3311,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>79</v>
       </c>
@@ -3240,7 +3325,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>83</v>
       </c>
@@ -3254,7 +3339,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>86</v>
       </c>
@@ -3268,7 +3353,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>89</v>
       </c>
@@ -3282,7 +3367,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>91</v>
       </c>
@@ -3296,7 +3381,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>94</v>
       </c>
@@ -3310,7 +3395,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>97</v>
       </c>
@@ -3324,7 +3409,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>100</v>
       </c>
@@ -3338,7 +3423,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>103</v>
       </c>
@@ -3352,7 +3437,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>106</v>
       </c>
@@ -3366,7 +3451,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>108</v>
       </c>
@@ -3380,7 +3465,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>111</v>
       </c>
@@ -3394,7 +3479,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>114</v>
       </c>
@@ -3408,7 +3493,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>117</v>
       </c>
@@ -3422,7 +3507,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>120</v>
       </c>
@@ -3436,7 +3521,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>123</v>
       </c>
@@ -3450,7 +3535,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>125</v>
       </c>
@@ -3464,7 +3549,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>128</v>
       </c>
@@ -3478,7 +3563,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>130</v>
       </c>
@@ -3489,7 +3574,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C44" s="5" t="s">
         <v>133</v>
       </c>
@@ -3497,7 +3582,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>135</v>
       </c>
@@ -3508,7 +3593,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>138</v>
       </c>
@@ -3519,7 +3604,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>141</v>
       </c>
@@ -3530,7 +3615,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>143</v>
       </c>
@@ -3541,7 +3626,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>145</v>
       </c>
@@ -3552,7 +3637,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>148</v>
       </c>
@@ -3563,7 +3648,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>151</v>
       </c>
@@ -3574,7 +3659,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>154</v>
       </c>
@@ -3585,7 +3670,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>157</v>
       </c>
@@ -3596,7 +3681,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>158</v>
       </c>
@@ -3607,7 +3692,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C55" s="5" t="s">
         <v>160</v>
       </c>
@@ -3615,7 +3700,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C56" s="5" t="s">
         <v>161</v>
       </c>
@@ -3623,7 +3708,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C57" s="5" t="s">
         <v>43</v>
       </c>
@@ -3637,36 +3722,36 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:C29"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="91.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="91.6640625" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-    </row>
-    <row r="2" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+    </row>
+    <row r="2" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -3674,7 +3759,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -3682,7 +3767,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3690,7 +3775,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -3698,17 +3783,17 @@
         <v>177</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-    </row>
-    <row r="9" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+    </row>
+    <row r="9" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>169</v>
       </c>
@@ -3719,18 +3804,18 @@
         <v>171</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1</v>
       </c>
       <c r="B10" t="s">
         <v>180</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="13" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -3741,7 +3826,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>3</v>
       </c>
@@ -3752,7 +3837,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>4</v>
       </c>
@@ -3763,7 +3848,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>5</v>
       </c>
@@ -3774,7 +3859,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>6</v>
       </c>
@@ -3785,29 +3870,29 @@
         <v>174</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>7</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="16" t="s">
         <v>191</v>
       </c>
       <c r="C16" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>8</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="16" t="s">
         <v>192</v>
       </c>
       <c r="C17" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>9</v>
       </c>
@@ -3818,18 +3903,18 @@
         <v>174</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>10</v>
       </c>
       <c r="B19" t="s">
         <v>195</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="13" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>11</v>
       </c>
@@ -3840,7 +3925,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>12</v>
       </c>
@@ -3851,7 +3936,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>13</v>
       </c>
@@ -3862,7 +3947,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>14</v>
       </c>
@@ -3873,7 +3958,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>15</v>
       </c>
@@ -3884,7 +3969,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>16</v>
       </c>
@@ -3895,7 +3980,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>17</v>
       </c>
@@ -3906,215 +3991,437 @@
         <v>176</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="5"/>
-    </row>
-    <row r="28" spans="1:3" s="8" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="5"/>
-    </row>
-    <row r="29" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="9" t="s">
+    <row r="27" spans="1:3" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>18</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" s="8" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>19</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>20</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>21</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>22</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>23</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>24</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>25</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>26</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>27</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>28</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>29</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="5"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="5"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-    </row>
-    <row r="30" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B42" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C42" s="7" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="5">
+    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
         <v>1</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B43" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C43" s="13" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="5">
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
         <v>2</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B44" t="s">
         <v>184</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C44" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="5">
-        <v>3</v>
-      </c>
-      <c r="B33" t="s">
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <v>3</v>
+      </c>
+      <c r="B45" t="s">
         <v>185</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C45" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="5">
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
         <v>4</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B46" t="s">
         <v>186</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C46" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="5">
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
         <v>5</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B47" t="s">
         <v>187</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C47" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="5">
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
         <v>6</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B48" t="s">
         <v>188</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C48" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="5">
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
         <v>7</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B49" t="s">
         <v>189</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C49" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="5">
+    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
         <v>8</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B50" t="s">
         <v>190</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C50" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="5">
+    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
         <v>9</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B51" t="s">
         <v>203</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C51" s="13" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="5">
-        <v>10</v>
-      </c>
-      <c r="B40" t="s">
+    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
+        <v>10</v>
+      </c>
+      <c r="B52" t="s">
         <v>204</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C52" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="5">
+    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
         <v>11</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B53" t="s">
         <v>205</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C53" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="5">
+    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
         <v>12</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B54" t="s">
         <v>206</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C54" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="5">
+    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
         <v>13</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B55" t="s">
         <v>207</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C55" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="5">
+    <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
         <v>14</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B56" t="s">
         <v>208</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C56" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="5">
+    <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
         <v>15</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B57" t="s">
         <v>209</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C57" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="5">
+    <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
         <v>16</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B58" t="s">
         <v>210</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C58" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="5"/>
+    <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
+        <v>17</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
+        <v>18</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="5">
+        <v>19</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
+        <v>20</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="5">
+        <v>21</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="5">
+        <v>22</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="5">
+        <v>23</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="5">
+        <v>24</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>177</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A41:C41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>